--- a/normativa/Anexos/L01T03C08/L01T03C08A14.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A14.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'HOJA 1'!$A$1:$AL$36</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -56,29 +56,6 @@
   </si>
   <si>
     <t>Tipo de acción (Apertura, Cierre o Traslado):</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red Supernet.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -172,11 +149,44 @@
   <si>
     <t xml:space="preserve">   6. Lugar de atención en el que está instalado:</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red ASFINet</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,6 +384,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,21 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,7 +795,7 @@
   <dimension ref="A1:AL45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="A17" sqref="A17:AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -818,88 +828,88 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>17</v>
+      <c r="A3" s="30" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -942,46 +952,46 @@
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>19</v>
+      <c r="A5" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="42"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="28"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1024,46 +1034,46 @@
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="28"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="33"/>
     </row>
     <row r="8" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
@@ -1148,88 +1158,88 @@
       <c r="AL9" s="10"/>
     </row>
     <row r="10" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="37"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="42"/>
     </row>
     <row r="11" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="31"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="36"/>
     </row>
     <row r="12" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1314,260 +1324,260 @@
       <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>15</v>
+      <c r="A14" s="34" t="s">
+        <v>14</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="31"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="36"/>
     </row>
     <row r="15" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="31"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="36"/>
     </row>
     <row r="16" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="31"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="36"/>
     </row>
     <row r="17" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="36"/>
     </row>
     <row r="18" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>14</v>
+      <c r="A18" s="34" t="s">
+        <v>13</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="31"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="36"/>
     </row>
     <row r="19" spans="1:38" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>20</v>
+      <c r="A19" s="37" t="s">
+        <v>19</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="34"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="39"/>
     </row>
     <row r="20" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -1690,130 +1700,130 @@
       <c r="AL22" s="12"/>
     </row>
     <row r="23" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>16</v>
+      <c r="A23" s="34" t="s">
+        <v>15</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="36"/>
     </row>
     <row r="24" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="31"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="36"/>
     </row>
     <row r="25" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="36"/>
     </row>
     <row r="26" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -2096,33 +2106,33 @@
       <c r="AL32" s="7"/>
     </row>
     <row r="33" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
@@ -2216,46 +2226,46 @@
       <c r="AL35" s="7"/>
     </row>
     <row r="36" spans="1:38" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
-        <v>18</v>
+      <c r="A36" s="24" t="s">
+        <v>17</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="38"/>
-      <c r="AK36" s="38"/>
-      <c r="AL36" s="38"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="24"/>
     </row>
     <row r="37" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -2426,6 +2436,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:AL24"/>
     <mergeCell ref="A36:AL36"/>
     <mergeCell ref="A33:AA33"/>
     <mergeCell ref="A5:AL5"/>
@@ -2442,7 +2453,6 @@
     <mergeCell ref="A15:AL15"/>
     <mergeCell ref="A16:AL16"/>
     <mergeCell ref="A23:AL23"/>
-    <mergeCell ref="A24:AL24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="62" orientation="portrait" r:id="rId1"/>
@@ -2450,7 +2460,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;6&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/732/2022 (inicial)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/828/2024 (inicial)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo  VIII
 Anexo 14
